--- a/车载软件提测情况统计4.19.xlsx
+++ b/车载软件提测情况统计4.19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\工作跟进20190505\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\工作跟进20190505\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>设备软件</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>RW_CA_V100R001B103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW_CA_SUT_V100R001B002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,10 +481,6 @@
     <t>RW_CA_SU_SW_V100R001B101</t>
   </si>
   <si>
-    <t>P023
-固件</t>
-  </si>
-  <si>
     <t>P023升级包</t>
   </si>
   <si>
@@ -547,10 +539,6 @@
     <t>P200工装</t>
   </si>
   <si>
-    <t>P200
-固件</t>
-  </si>
-  <si>
     <t>4G、类JT808协议</t>
   </si>
   <si>
@@ -564,23 +552,6 @@
   </si>
   <si>
     <t>通用版本</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">【3.6排期】3.7
-【3.19排期】3.22
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【4.18排期】5.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CANCLE</t>
@@ -645,11 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一轮：4.16-4.20
-第二轮：4.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +641,33 @@
   </si>
   <si>
     <t>第一轮：4.29-5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SUT_V100R001B002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【3.6排期】3.7
+【3.19排期】3.22
+【4.18排期】5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮：4.16-4.20
+第二轮：4.29-5.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,8 +1184,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1211,37 +1204,37 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -1258,20 +1251,20 @@
         <v>16</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="21">
         <v>3.7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>24</v>
       </c>
@@ -1279,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>18</v>
@@ -1288,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="21">
         <v>3.14</v>
@@ -1307,23 +1300,23 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>25</v>
       </c>
@@ -1331,16 +1324,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="21">
         <v>3.9</v>
@@ -1359,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
@@ -1368,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="21">
         <v>3.28</v>
@@ -1376,18 +1369,18 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
@@ -1396,28 +1389,28 @@
         <v>20</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="H7" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -1426,26 +1419,26 @@
         <v>20</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>22</v>
@@ -1454,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="21">
         <v>3.9</v>
@@ -1477,10 +1470,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
@@ -1499,10 +1492,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
@@ -1517,23 +1510,23 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -1541,16 +1534,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="21">
         <v>3.9</v>
@@ -1561,7 +1554,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
@@ -1569,16 +1562,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="21">
         <v>3.11</v>
@@ -1589,7 +1582,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>31</v>
       </c>
@@ -1597,16 +1590,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="21">
         <v>3.11</v>
@@ -1616,10 +1609,10 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>32</v>
       </c>
@@ -1627,16 +1620,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="21">
         <v>3.11</v>
@@ -1647,7 +1640,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
@@ -1655,16 +1648,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="21">
         <v>3.15</v>
@@ -1683,16 +1676,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="22"/>
@@ -1707,16 +1700,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="22"/>
@@ -1725,22 +1718,22 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
@@ -1755,51 +1748,51 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="21">
         <v>3.19</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -1807,22 +1800,22 @@
     </row>
     <row r="23" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="22"/>
@@ -1831,26 +1824,26 @@
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I24" s="11">
         <v>3</v>
@@ -1859,7 +1852,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>4</v>
@@ -1869,16 +1862,16 @@
         <v>18</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I25" s="11">
         <v>3</v>
@@ -1887,20 +1880,20 @@
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="18"/>
@@ -1909,7 +1902,7 @@
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>1</v>
@@ -1919,10 +1912,10 @@
         <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="18"/>
@@ -1931,20 +1924,20 @@
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="18"/>
@@ -1953,20 +1946,20 @@
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="18"/>
@@ -1975,20 +1968,20 @@
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="18"/>
@@ -1997,20 +1990,20 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="18"/>
@@ -2019,46 +2012,46 @@
     </row>
     <row r="32" spans="1:10" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I32" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="F33" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="22"/>
@@ -2067,7 +2060,7 @@
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2077,10 +2070,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="18"/>
@@ -2089,17 +2082,17 @@
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="25"/>
@@ -2109,7 +2102,7 @@
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>5</v>
@@ -2119,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="25"/>
@@ -2129,17 +2122,17 @@
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="25"/>
@@ -2149,17 +2142,17 @@
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="25"/>
@@ -2169,7 +2162,7 @@
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>10</v>
@@ -2179,10 +2172,10 @@
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="18"/>
@@ -2191,17 +2184,17 @@
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="25"/>
@@ -2213,6 +2206,7 @@
   <autoFilter ref="A1:H40">
     <filterColumn colId="2">
       <filters blank="1">
+        <filter val="CLOSE"/>
         <filter val="OPEN"/>
       </filters>
     </filterColumn>

--- a/车载软件提测情况统计4.19.xlsx
+++ b/车载软件提测情况统计4.19.xlsx
@@ -15,14 +15,14 @@
     <sheet name="2019.3.5" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019.3.5'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019.3.5'!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
   <si>
     <t>设备软件</t>
   </si>
@@ -195,10 +195,6 @@
   </si>
   <si>
     <t>接口与通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计提测时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,9 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RW_CA_SU_V200R001B107</t>
-  </si>
-  <si>
     <t>RW_CA_SU_V200R001B108</t>
   </si>
   <si>
@@ -571,10 +564,6 @@
   </si>
   <si>
     <t>【4.18排期】4.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【4.18排期】4.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -620,54 +609,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮：4.24-4.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮：4.29-5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SUT_V100R001B002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【3.6排期】3.7
+【3.19排期】3.22
+【4.18排期】5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一轮：4.16-4.20
+第二轮：4.29-5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一轮：3.22-3.27
 第二轮：4.10-4.17
 第三轮：4.17
 第四轮：4.17-4.19
-第五轮：4.26-4.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一轮：4.24-4.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一轮：4.29-5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P023固件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P023固件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P200固件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW_CA_SUT_V100R001B002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【3.6排期】3.7
-【3.19排期】3.22
-【4.18排期】5.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一轮：4.16-4.20
-第二轮：4.29-5.7</t>
+第五轮：4.26-4.28
+第六轮：4.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_SU_V200R003B100SP02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【4.18排期】4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计提测时间4.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计提测时间5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW_CA_V100R001B111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南中集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南玖合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V100R002B004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P023工装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V410R001B001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200工装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -764,13 +850,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +974,69 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,11 +1343,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1196,13 +1358,14 @@
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
@@ -1219,52 +1382,56 @@
         <v>46</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41">
+        <v>3.7</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="21">
-        <v>3.7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>24</v>
       </c>
@@ -1281,18 +1448,19 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="21">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="21">
         <v>3.14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="11"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
@@ -1300,23 +1468,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="12"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>25</v>
       </c>
@@ -1333,18 +1502,19 @@
         <v>36</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="21">
+        <v>77</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21">
         <v>3.9</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="11"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>19</v>
@@ -1361,20 +1531,21 @@
         <v>20</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="21">
+        <v>78</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21">
         <v>3.28</v>
       </c>
-      <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="22"/>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1389,28 +1560,29 @@
         <v>20</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -1419,46 +1591,48 @@
         <v>20</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="F9" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="41">
         <v>3.9</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
@@ -1473,21 +1647,26 @@
         <v>38</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" ht="38.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1495,38 +1674,40 @@
         <v>39</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>0</v>
@@ -1543,18 +1724,19 @@
         <v>40</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="21">
+        <v>80</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21">
         <v>3.9</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="6"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
@@ -1565,24 +1747,25 @@
         <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="21">
+        <v>81</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="21">
         <v>3.11</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="6"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>31</v>
       </c>
@@ -1596,23 +1779,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="21">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="21">
         <v>3.11</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="11"/>
+      <c r="K15" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>32</v>
       </c>
@@ -1626,21 +1810,22 @@
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="21">
+        <v>66</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="21">
         <v>3.11</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="6"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
@@ -1654,21 +1839,22 @@
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="21">
+        <v>67</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="21">
         <v>3.15</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="6"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>34</v>
       </c>
@@ -1676,23 +1862,24 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+        <v>88</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="22"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
@@ -1700,47 +1887,49 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+        <v>87</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="22"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.15">
+      <c r="J20" s="22"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>0</v>
@@ -1757,102 +1946,108 @@
         <v>37</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="21">
+        <v>89</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="21">
         <v>3.19</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="I21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="22"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="11">
+        <v>150</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="11">
         <v>3</v>
       </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>4</v>
@@ -1862,47 +2057,53 @@
         <v>18</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="11">
+        <v>127</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="11">
         <v>3</v>
       </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>1</v>
@@ -1912,155 +2113,176 @@
         <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="38.25" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="11">
+        <v>136</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="11">
         <v>10</v>
       </c>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F33" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>9</v>
@@ -2070,39 +2292,41 @@
         <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" s="16"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>5</v>
@@ -2112,57 +2336,60 @@
         <v>18</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="16"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="21"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="21"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="16"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>10</v>
@@ -2172,43 +2399,133 @@
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="21"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="17"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="51"/>
+      <c r="G41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="52"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="51"/>
+      <c r="G42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="54"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="54"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H40">
+  <autoFilter ref="A1:I44">
     <filterColumn colId="2">
       <filters blank="1">
-        <filter val="CLOSE"/>
         <filter val="OPEN"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
